--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9C3C9-0DA5-44E5-9F97-97D77D214F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D6AA4C-918D-412D-B6BE-5DAEC6F56A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>TAREA</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Pantalla 3: Alerta de Recordatorio</t>
+  </si>
+  <si>
+    <t>Completado</t>
   </si>
 </sst>
 </file>
@@ -703,14 +706,14 @@
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -766,6 +769,12 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -785,12 +794,6 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <border>
@@ -972,8 +975,8 @@
     <tableColumn id="2" xr3:uid="{A12D3470-A3A4-4077-A5BC-70B9D551CE22}" name="ASIGNADO A"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORIDAD "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ESTADO "/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="4" dataCellStyle="Fecha"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="3" dataCellStyle="Fecha"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="1" dataCellStyle="Fecha"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="0" dataCellStyle="Fecha"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% COMPLETADO"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NOTAS"/>
   </tableColumns>
@@ -1219,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1248,8 +1251,8 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1257,10 +1260,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
@@ -1380,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F10" s="8">
         <v>45996</v>
@@ -1389,7 +1392,7 @@
         <v>46002</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,44 +1666,44 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="6:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1709,7 +1712,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:I7 G8:I15 F9:F14 D9:E9 D8:F8 B8:C9 B10:E15 G17:I18 F18 G21:I23 F22:F23 D22:E22 D21:F21 B21:C22 B23:E23 B19:I20">
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>AND($H6=0,$H6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1728,7 +1731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:I16 D18:E18 D17:F17 B17:C18">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($H16=0,$H16&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1761,7 +1764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($H15=0,$H15&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1866,6 +1869,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2165,36 +2197,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828CA8E1-44D4-4665-B868-FBF7A439CAC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2213,24 +2236,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D6AA4C-918D-412D-B6BE-5DAEC6F56A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F7262F-AFCC-4146-A8BC-A6C589F73464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1222,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F12" s="8">
         <v>45996</v>
@@ -1439,7 +1439,7 @@
         <v>46002</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,35 +1869,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2197,27 +2168,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828CA8E1-44D4-4665-B868-FBF7A439CAC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2236,4 +2216,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F7262F-AFCC-4146-A8BC-A6C589F73464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD8CB7-E83A-4133-B568-0B96600EFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de tareas pendientes" sheetId="1" r:id="rId1"/>
@@ -769,12 +769,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -794,6 +788,12 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <border>
@@ -975,8 +975,8 @@
     <tableColumn id="2" xr3:uid="{A12D3470-A3A4-4077-A5BC-70B9D551CE22}" name="ASIGNADO A"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORIDAD "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ESTADO "/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="1" dataCellStyle="Fecha"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="0" dataCellStyle="Fecha"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="4" dataCellStyle="Fecha"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="3" dataCellStyle="Fecha"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% COMPLETADO"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NOTAS"/>
   </tableColumns>
@@ -1222,23 +1222,23 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" customWidth="1"/>
-    <col min="3" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F13" s="8">
         <v>45996</v>
@@ -1462,7 +1462,7 @@
         <v>46002</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F14" s="8">
         <v>45996</v>
@@ -1485,10 +1485,10 @@
         <v>46002</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1711,9 +1711,19 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B6:I7 G8:I15 F9:F14 D9:E9 D8:F8 B8:C9 B10:E15 G17:I18 F18 G21:I23 F22:F23 D22:E22 D21:F21 B21:C22 B23:E23 B19:I20">
-    <cfRule type="expression" dxfId="4" priority="22">
+  <conditionalFormatting sqref="B6:I7 D8:F8 B8:C9 G8:I15 D9:E9 B10:E15 G17:I18 F18 B19:I20 D21:F21 B21:C22 G21:I23 D22:E22 F22:F23 B23:E23">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>AND($H6=0,$H6&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:I16 D17:F17 B17:C18 D18:E18">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND($H16=0,$H16&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F15">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND($H9=0,$H9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H15">
@@ -1728,11 +1738,6 @@
           <x14:id>{8C6A5CC8-56B3-4028-81B5-C3A4E862D9B7}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:I16 D18:E18 D17:F17 B17:C18">
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>AND($H16=0,$H16&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H18">
@@ -1761,11 +1766,6 @@
           <x14:id>{ACA4278F-E76A-4B65-85CC-3C035392CBD4}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND($H15=0,$H15&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H23">
@@ -1869,6 +1869,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2168,26 +2188,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2198,6 +2198,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828CA8E1-44D4-4665-B868-FBF7A439CAC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2218,18 +2230,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
   <ds:schemaRefs>

--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD8CB7-E83A-4133-B568-0B96600EFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC2532E-2D3D-4B7D-8B05-3EC4C7FEAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1401,13 +1401,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F11" s="8">
         <v>45996</v>
@@ -1416,7 +1416,7 @@
         <v>46002</v>
       </c>
       <c r="H11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,26 +1869,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2188,6 +2168,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2198,18 +2198,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828CA8E1-44D4-4665-B868-FBF7A439CAC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2230,6 +2218,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
   <ds:schemaRefs>

--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC2532E-2D3D-4B7D-8B05-3EC4C7FEAA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518BC46C-4EA1-4411-8B03-72B4D1758C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de tareas pendientes" sheetId="1" r:id="rId1"/>
@@ -769,6 +769,12 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -788,12 +794,6 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <border>
@@ -975,8 +975,8 @@
     <tableColumn id="2" xr3:uid="{A12D3470-A3A4-4077-A5BC-70B9D551CE22}" name="ASIGNADO A"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORIDAD "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ESTADO "/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="4" dataCellStyle="Fecha"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="3" dataCellStyle="Fecha"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="1" dataCellStyle="Fecha"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="0" dataCellStyle="Fecha"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% COMPLETADO"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NOTAS"/>
   </tableColumns>
@@ -1222,23 +1222,23 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" customWidth="1"/>
+    <col min="3" max="5" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8">
         <v>45996</v>
@@ -1323,7 +1323,7 @@
         <v>46002</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8">
         <v>45996</v>
@@ -1346,7 +1346,7 @@
         <v>46002</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8">
         <v>45996</v>
@@ -1369,7 +1369,7 @@
         <v>46002</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F16" s="8">
         <v>45996</v>
@@ -1516,7 +1516,7 @@
         <v>46002</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F17" s="8">
         <v>45996</v>
@@ -1539,7 +1539,7 @@
         <v>46002</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F18" s="8">
         <v>45996</v>
@@ -1562,7 +1562,7 @@
         <v>46002</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F22" s="8">
         <v>45996</v>
@@ -1639,7 +1639,7 @@
         <v>46002</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F23" s="8">
         <v>45996</v>
@@ -1662,7 +1662,7 @@
         <v>46002</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1712,17 +1712,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:I7 D8:F8 B8:C9 G8:I15 D9:E9 B10:E15 G17:I18 F18 B19:I20 D21:F21 B21:C22 G21:I23 D22:E22 F22:F23 B23:E23">
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="4" priority="22">
       <formula>AND($H6=0,$H6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:I16 D17:F17 B17:C18 D18:E18">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($H16=0,$H16&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F15">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND($H9=0,$H9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1869,6 +1869,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2168,7 +2177,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2188,16 +2197,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{828CA8E1-44D4-4665-B868-FBF7A439CAC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2218,7 +2226,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2228,12 +2236,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.2 Cronograma/GN1_Cronograma_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518BC46C-4EA1-4411-8B03-72B4D1758C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A1F0BB-DB39-455E-8EDB-BE905666707E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de tareas pendientes" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Lista de tareas pendientes'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>TAREA</t>
   </si>
@@ -81,9 +76,6 @@
   </si>
   <si>
     <t>GRUPO 1_ Acuña_Arboleda_Bonifaz</t>
-  </si>
-  <si>
-    <t>Sin iniciar</t>
   </si>
   <si>
     <t>Introducción</t>
@@ -671,7 +663,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -705,9 +697,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,12 +758,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -794,6 +777,12 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
     <dxf>
       <border>
@@ -975,8 +964,8 @@
     <tableColumn id="2" xr3:uid="{A12D3470-A3A4-4077-A5BC-70B9D551CE22}" name="ASIGNADO A"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORIDAD "/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ESTADO "/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="1" dataCellStyle="Fecha"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="0" dataCellStyle="Fecha"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataDxfId="4" dataCellStyle="Fecha"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE FIN" dataDxfId="3" dataCellStyle="Fecha"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% COMPLETADO"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NOTAS"/>
   </tableColumns>
@@ -1222,23 +1211,23 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" customWidth="1"/>
-    <col min="3" max="5" width="16.81640625" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.81640625" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1251,8 +1240,8 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1260,12 +1249,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1305,16 +1294,16 @@
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8">
         <v>45996</v>
@@ -1331,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="8">
         <v>45996</v>
@@ -1351,16 +1340,16 @@
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8">
         <v>45996</v>
@@ -1377,13 +1366,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="8">
         <v>45996</v>
@@ -1401,13 +1390,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="8">
         <v>45996</v>
@@ -1424,13 +1413,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="8">
         <v>45996</v>
@@ -1447,13 +1436,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8">
         <v>45996</v>
@@ -1470,13 +1459,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="8">
         <v>45996</v>
@@ -1488,9 +1477,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
@@ -1498,16 +1487,16 @@
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="8">
         <v>45996</v>
@@ -1521,16 +1510,16 @@
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="8">
         <v>45996</v>
@@ -1544,16 +1533,16 @@
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="8">
         <v>45996</v>
@@ -1567,7 +1556,7 @@
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
@@ -1575,16 +1564,16 @@
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F20" s="8">
         <v>45996</v>
@@ -1593,21 +1582,21 @@
         <v>46002</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F21" s="8">
         <v>45996</v>
@@ -1616,21 +1605,21 @@
         <v>46002</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="8">
         <v>45996</v>
@@ -1644,16 +1633,16 @@
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="8">
         <v>45996</v>
@@ -1666,44 +1655,44 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="6:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1712,17 +1701,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:I7 D8:F8 B8:C9 G8:I15 D9:E9 B10:E15 G17:I18 F18 B19:I20 D21:F21 B21:C22 G21:I23 D22:E22 F22:F23 B23:E23">
-    <cfRule type="expression" dxfId="4" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>AND($H6=0,$H6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:I16 D17:F17 B17:C18 D18:E18">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND($H16=0,$H16&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F15">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND($H9=0,$H9&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1869,12 +1858,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2178,29 +2178,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2227,13 +2220,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D80D6D39-DBD9-4440-B62F-A6A353ABBEAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C9377B5-33A9-4C3D-9A88-86A3E387B080}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>